--- a/Data/Luanda/Misc/Adding_SOPerctangeChange.xlsx
+++ b/Data/Luanda/Misc/Adding_SOPerctangeChange.xlsx
@@ -28,10 +28,10 @@
     <t xml:space="preserve">NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">Huambo City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luanda City</t>
+    <t xml:space="preserve">Huambo_City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luanda_City</t>
   </si>
   <si>
     <t xml:space="preserve">ZEE</t>
@@ -158,10 +158,10 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
